--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?${MemberTransfer.uuid}</t>
+    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","form_key_field":"{}","form_record_image_url":"http://krhrimg.oss-cn-beijing.aliyuncs.com/e94cb58f-b7d5-11e7-9310-5254001aba5d/screenshot/e94cb594-b7d5-11e7-9310-5254001aba5d/employee_adjust-e847952f-b7d5-11e7-83f5-5254001aba5d.png","user_name":"灰太狼","title":"测试10的调整","form_record_id":"?${MemberTransfer.uuid}","from_service":"hr","result":"等待$NEXT_APPROVER$批复","is_deleted":false,"user_id":"5ceb080b-0e25-11e7-b0e5-00163e007053","current_approver_status":"","approval_type_id":"95d72f09-0f75-11e7-8ff3-00163e007053","form_name":"employee_adjust","sync_field":"n","wait_task":{"assignee_type":"reporting_to","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"},"tasks":"3c0a9471-7f34-4a17-9846-32cf3d910b98,22894a0a-2f9d-4d3b-a04a-15efd5a41c3d,73fc0e03-dc15-49f7-9ea9-2191a68afaff,38bf36d6-6e47-4705-8961-9a2eaf35af9d,dab87b07-b48a-45af-b9c7-480c20165ce4,53d42b88-51c7-4621-9e9f-863106306801,8880f68a-e9ef-4001-afa2-dbae46989660","approval_type_name":"调整","status":"approving"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","form_key_field":"{}","form_record_image_url":"http://krhrimg.oss-cn-beijing.aliyuncs.com/e94cb58f-b7d5-11e7-9310-5254001aba5d/screenshot/e94cb594-b7d5-11e7-9310-5254001aba5d/employee_adjust-e847952f-b7d5-11e7-83f5-5254001aba5d.png","user_name":"灰太狼","title":"测试10的调整","form_record_id":"?${MemberTransfer.uuid}","from_service":"hr","result":"等待$NEXT_APPROVER$批复","is_deleted":false,"user_id":"5ceb080b-0e25-11e7-b0e5-00163e007053","current_approver_status":"","approval_type_id":"95d72f09-0f75-11e7-8ff3-00163e007053","form_name":"employee_adjust","sync_field":"n","wait_task":{"assignee_type":"reporting_to","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"},"tasks":"3c0a9471-7f34-4a17-9846-32cf3d910b98,22894a0a-2f9d-4d3b-a04a-15efd5a41c3d,73fc0e03-dc15-49f7-9ea9-2191a68afaff,38bf36d6-6e47-4705-8961-9a2eaf35af9d,dab87b07-b48a-45af-b9c7-480c20165ce4,53d42b88-51c7-4621-9e9f-863106306801,8880f68a-e9ef-4001-afa2-dbae46989660","approval_type_name":"调整","status":"approving"}]</t>
+    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","form_key_field":"s{}","title":"测试10的调整","form_record_id":"?${MemberTransfer.uuid}","from_service":"hr","result":"等待$NEXT_APPROVER$批复","is_deleted":false,"user_id":"5ceb080b-0e25-11e7-b0e5-00163e007053","current_approver_status":"","approval_type_id":"95d72f09-0f75-11e7-8ff3-00163e007053","form_name":"employee_adjust","sync_field":"n","wait_task":{"assignee_type":"reporting_to","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"},"approval_type_name":"调整","status":"approving"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","form_key_field":"s{}","title":"测试10的调整","form_record_id":"?${MemberTransfer.uuid}","from_service":"hr","result":"等待$NEXT_APPROVER$批复","is_deleted":false,"user_id":"5ceb080b-0e25-11e7-b0e5-00163e007053","current_approver_status":"","approval_type_id":"95d72f09-0f75-11e7-8ff3-00163e007053","form_name":"employee_adjust","sync_field":"n","wait_task":{"assignee_type":"reporting_to","assignee_alias":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","assignees":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"},"approval_type_name":"调整","status":"approving"}]</t>
+    <t>[{"form_record_id":"?${MemberTransfer.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,13 +500,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>CaseID</t>
   </si>
@@ -74,6 +74,14 @@
   </si>
   <si>
     <t>[{"form_record_id":"?${MemberTransfer.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${Formal.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +414,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,6 +497,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,10 +510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,6 +538,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>CaseID</t>
   </si>
@@ -73,15 +73,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"form_record_id":"?${MemberTransfer.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{"form_record_id":"?${Formal.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${Adjust.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_3</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${Offboard.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +506,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -510,16 +522,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,15 +547,23 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>CaseID</t>
   </si>
@@ -90,6 +90,42 @@
   <si>
     <t>[{"form_record_id":"?${Offboard.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${LeaveRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${OutRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_5</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${OvertimeRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${ResignRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${TripRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_6</t>
+  </si>
+  <si>
+    <t>GetInstances_7</t>
+  </si>
+  <si>
+    <t>GetInstances_8</t>
   </si>
 </sst>
 </file>
@@ -421,7 +457,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,6 +550,31 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,16 +583,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,6 +627,46 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>CaseID</t>
   </si>
@@ -126,6 +126,31 @@
   </si>
   <si>
     <t>GetInstances_8</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${GeneralRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${MaterialgetRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${ContractRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>GetInstances_9</t>
+  </si>
+  <si>
+    <t>GetInstances_10</t>
+  </si>
+  <si>
+    <t>GetInstances_11</t>
+  </si>
+  <si>
+    <t>GetInstances_12</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${ProjectRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,7 +195,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,6 +603,26 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -583,10 +631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,6 +715,38 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>CaseID</t>
   </si>
@@ -150,6 +150,13 @@
   </si>
   <si>
     <t>[{"form_record_id":"?${ProjectRequest.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_13</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${purchase.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,6 +630,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,6 +759,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>CaseID</t>
   </si>
@@ -157,6 +157,20 @@
   </si>
   <si>
     <t>[{"form_record_id":"?${purchase.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_14</t>
+  </si>
+  <si>
+    <t>GetInstances_15</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${reimbursement.uuid}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?${payment.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,6 +649,16 @@
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,10 +667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,6 +791,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -77,48 +77,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"form_record_id":"?${Formal.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${Adjust.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_3</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${Offboard.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"form_record_id":"?${LeaveRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${OutRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_5</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?${OvertimeRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${ResignRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${TripRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_6</t>
   </si>
   <si>
@@ -128,15 +96,6 @@
     <t>GetInstances_8</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?${GeneralRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${MaterialgetRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${ContractRequest.uuid}"}]</t>
-  </si>
-  <si>
     <t>GetInstances_9</t>
   </si>
   <si>
@@ -149,28 +108,58 @@
     <t>GetInstances_12</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?${ProjectRequest.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_13</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?${purchase.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_14</t>
   </si>
   <si>
     <t>GetInstances_15</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?${reimbursement.uuid}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?${payment.uuid}"}]</t>
+    <t>[{"form_record_id":"?temp{Formal.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{Offboard.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{LeaveRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{OutRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{OvertimeRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{ResignRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{TripRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{ProjectRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{GeneralRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{MaterialgetRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{ContractRequest.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{purchase.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{reimbursement.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{payment.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"form_record_id":"?temp{Adjust.uuid}"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,67 +585,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +659,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -700,111 +689,111 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/GetInstances.xlsx
+++ b/sources/case/GetInstances.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetInstances_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,50 +113,54 @@
     <t>GetInstances_15</t>
   </si>
   <si>
-    <t>[{"form_record_id":"?temp{Formal.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{Offboard.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{LeaveRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{OutRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{OvertimeRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{ResignRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{TripRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{ProjectRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{GeneralRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{MaterialgetRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{ContractRequest.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{purchase.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{reimbursement.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{payment.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"form_record_id":"?temp{Adjust.uuid}"}]</t>
+    <t>items[0].form_record_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Adjust.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Formal.uuid}</t>
+  </si>
+  <si>
+    <t>${Offboard.uuid}</t>
+  </si>
+  <si>
+    <t>${LeaveRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${OutRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${OvertimeRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${ResignRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${TripRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${ProjectRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${GeneralRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${MaterialgetRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${ContractRequest.uuid}</t>
+  </si>
+  <si>
+    <t>${purchase.uuid}</t>
+  </si>
+  <si>
+    <t>${reimbursement.uuid}</t>
+  </si>
+  <si>
+    <t>${payment.uuid}</t>
   </si>
 </sst>
 </file>
@@ -580,72 +580,72 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -659,13 +659,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,123 +681,124 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>